--- a/resultados/metrics/metrics-zdt.xlsx
+++ b/resultados/metrics/metrics-zdt.xlsx
@@ -80,10 +80,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="0.0000000"/>
-    <numFmt numFmtId="166" formatCode="0.00000000"/>
-    <numFmt numFmtId="167" formatCode="0.000000"/>
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -563,33 +561,24 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -935,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -962,831 +951,847 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>3.65955381449634</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>4.8633989876269703E-3</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <v>3.72994870352407E-3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>3.6615703564270201</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>3.5153146939227199E-3</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>2.2861808906138601E-3</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>3.6611263739531799</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>5.4916037979734402E-3</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>2.8742667990160099E-3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>3.6615545597897201</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>3.49712617694075E-3</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>2.21599396356937E-3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>3.6408594022323899</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>1.03402032368869E-2</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>9.8307515405663508E-3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
       <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>3.6407320964862899</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>1.0092950328595199E-2</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>9.73970919621398E-3</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <v>3.66150519057335</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>3.5811989782852001E-3</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="3">
         <v>2.3516190914726E-3</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="D9" s="12">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="D9" s="4">
         <f>MAX(D2:D8)</f>
         <v>3.6615703564270201</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="4">
         <f>MIN(E2:E8)</f>
         <v>3.49712617694075E-3</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="4">
         <f>MIN(F2:F8)</f>
         <v>2.21599396356937E-3</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="3">
         <v>3.3272721997373198</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>3.9257508117153603E-3</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>2.8436653041591302E-3</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
       <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <v>3.3284903787137798</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="3">
         <v>3.58483630927251E-3</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>2.0855592706116801E-3</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="3">
         <v>3.32773256971584</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="3">
         <v>3.9660439518193298E-3</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="3">
         <v>2.7781547737233E-3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
       <c r="C13" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="3">
         <v>3.3284867419600701</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="3">
         <v>3.60776546588332E-3</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="3">
         <v>2.1193249313196101E-3</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="3">
         <v>3.2469204602512298</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="3">
         <v>2.2257510836707801E-2</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="3">
         <v>2.3430086561703201E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
       <c r="C15" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="3">
         <v>3.3129573290733201</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="3">
         <v>6.2722222435429298E-3</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="3">
         <v>5.8914597322352403E-3</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="6"/>
+      <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="3">
         <v>3.32848992806997</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="3">
         <v>3.5832815472944101E-3</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="3">
         <v>2.08835267146988E-3</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="D17" s="12">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="D17" s="4">
         <f>MAX(D10:D16)</f>
         <v>3.3284903787137798</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="4">
         <f>MIN(E10:E16)</f>
         <v>3.5832815472944101E-3</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="4">
         <f>MIN(F10:F16)</f>
         <v>2.0855592706116801E-3</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="3">
         <v>4.8148556953215103</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="3">
         <v>5.51618995517884E-3</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="3">
         <v>1.5368463230553001E-3</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
       <c r="C19" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="3">
         <v>4.8138233812452702</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="3">
         <v>4.8631789315225901E-3</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="3">
         <v>1.58085659578431E-3</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11" t="s">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="3">
         <v>4.8148271252160404</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="3">
         <v>4.8024378037581803E-3</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="3">
         <v>1.5256094701077999E-3</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
       <c r="C21" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="3">
         <v>4.4471908705766401</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="3">
         <v>5.6560558533199998E-3</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="3">
         <v>4.1999836421482299E-2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11" t="s">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="3">
         <v>4.7781540444077297</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="3">
         <v>9.58481009008748E-3</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="3">
         <v>7.1754286983908497E-3</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
       <c r="C23" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="3">
         <v>4.7266634904306297</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="3">
         <v>1.42169527334478E-2</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="3">
         <v>1.7854687236033499E-2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="3" t="s">
+      <c r="A24" s="6"/>
+      <c r="B24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="3">
         <v>4.8088031628746597</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="3">
         <v>5.5655876946101102E-3</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="3">
         <v>2.39300990182923E-3</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="D25" s="15">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="D25" s="4">
         <f>MAX(D18:D24)</f>
         <v>4.8148556953215103</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="4">
         <f>MIN(E18:E24)</f>
         <v>4.8024378037581803E-3</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="4">
         <f>MIN(F18:F24)</f>
         <v>1.5256094701077999E-3</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="3">
         <v>14.4847018557056</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="3">
         <v>0.25777567362099002</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="3">
         <v>0.25487462864604998</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="11"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
       <c r="C27" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="3">
         <v>14.485717593253099</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="3">
         <v>0.24470975800351699</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="3">
         <v>0.25481694647488301</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="11" t="s">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="3">
         <v>15.661141470102001</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="3">
         <v>4.6567842097435296E-3</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="3">
         <v>2.6220906579175001E-3</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="11"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
       <c r="C29" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="3">
         <v>15.6494476951022</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="3">
         <v>1.5523542183551099E-2</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="3">
         <v>2.38836929803307E-3</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="11" t="s">
+      <c r="A30" s="6"/>
+      <c r="B30" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="3">
         <v>14.411439648196099</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="3">
         <v>0.27803193800117898</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="3">
         <v>0.27018207098319003</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
       <c r="C31" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="3">
         <v>14.474367268857099</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="3">
         <v>0.244294153033348</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="3">
         <v>0.25729776882319699</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="3" t="s">
+      <c r="A32" s="6"/>
+      <c r="B32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C32" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="3">
         <v>11.0696792416921</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E32" s="3">
         <v>0.92049409818166505</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="3">
         <v>0.95818337632819595</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D33" s="12">
+      <c r="D33" s="4">
         <f>MAX(D26:D32)</f>
         <v>15.661141470102001</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="4">
         <f>MIN(E26:E32)</f>
         <v>4.6567842097435296E-3</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F33" s="4">
         <f>MIN(F26:F32)</f>
         <v>2.38836929803307E-3</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C34" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="3">
         <v>3.7836708902509399</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="3">
         <v>0.64989430652620805</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F34" s="3">
         <v>7.4313552361180701E-2</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
-      <c r="B35" s="11"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="7"/>
       <c r="C35" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D35" s="3">
         <v>3.79900105121461</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="3">
         <v>0.15808944353760199</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F35" s="3">
         <v>6.7900846285959604E-2</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
-      <c r="B36" s="11" t="s">
+      <c r="A36" s="6"/>
+      <c r="B36" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C36" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D36" s="3">
         <v>3.81025899823578</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E36" s="3">
         <v>9.6385252507232594E-2</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F36" s="3">
         <v>6.5149188642566705E-2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="7"/>
       <c r="C37" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D37" s="3">
         <v>3.7032357282881301</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="3">
         <v>0.25034958479984798</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F37" s="3">
         <v>0.10886755852390401</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
-      <c r="B38" s="11" t="s">
+      <c r="A38" s="6"/>
+      <c r="B38" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C38" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D38" s="3">
         <v>3.7717836141263401</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E38" s="3">
         <v>0.155261493228494</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F38" s="3">
         <v>7.8816004920411395E-2</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
-      <c r="B39" s="11"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="7"/>
       <c r="C39" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D39" s="3">
         <v>3.7070711859791601</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E39" s="3">
         <v>0.14331866395124401</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F39" s="3">
         <v>9.3800347338801604E-2</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="3" t="s">
+      <c r="A40" s="6"/>
+      <c r="B40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C40" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F40" s="16" t="s">
+      <c r="F40" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="D41" s="15">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="D41" s="4">
         <f>MAX(D34:D40)</f>
         <v>3.81025899823578</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E41" s="4">
         <f>MIN(E34:E40)</f>
         <v>9.6385252507232594E-2</v>
       </c>
-      <c r="F41" s="15">
+      <c r="F41" s="4">
         <f>MIN(F34:F40)</f>
         <v>6.5149188642566705E-2</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="3">
         <v>14.460882359711899</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E42" s="3">
         <v>3.8753903117484298E-3</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F42" s="3">
         <v>4.2725531645729196E-3</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
-      <c r="B43" s="11"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="7"/>
       <c r="C43" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="3">
         <v>14.456771227062999</v>
       </c>
-      <c r="E43" s="13">
+      <c r="E43" s="3">
         <v>4.7721112835158496E-3</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F43" s="3">
         <v>4.87855081933849E-3</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
-      <c r="B44" s="11" t="s">
+      <c r="A44" s="6"/>
+      <c r="B44" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C44" t="s">
         <v>6</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="3">
         <v>14.469422943708301</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E44" s="3">
         <v>3.6052839589500799E-3</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F44" s="3">
         <v>3.5531829295338099E-3</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
-      <c r="B45" s="11"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="7"/>
       <c r="C45" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="3">
         <v>14.4745285280085</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E45" s="3">
         <v>2.98064660955424E-3</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F45" s="3">
         <v>2.39660230362842E-3</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="10"/>
-      <c r="B46" s="11" t="s">
+      <c r="A46" s="6"/>
+      <c r="B46" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C46" t="s">
         <v>6</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="3">
         <v>14.479006770379801</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E46" s="3">
         <v>2.8573959798929901E-3</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F46" s="3">
         <v>2.7229461322912699E-3</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
-      <c r="B47" s="11"/>
+      <c r="A47" s="6"/>
+      <c r="B47" s="7"/>
       <c r="C47" t="s">
         <v>7</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D47" s="3">
         <v>14.4803274726737</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E47" s="3">
         <v>2.87915127029734E-3</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F47" s="3">
         <v>1.8589458023291301E-3</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="10"/>
-      <c r="B48" s="3" t="s">
+      <c r="A48" s="6"/>
+      <c r="B48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C48" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D48" s="3">
         <v>14.4445886075577</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E48" s="3">
         <v>3.2301762721330098E-2</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F48" s="3">
         <v>3.1357316934737499E-3</v>
       </c>
     </row>
     <row r="49" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D49" s="12">
+      <c r="D49" s="4">
         <f>MAX(D42:D48)</f>
         <v>14.4803274726737</v>
       </c>
-      <c r="E49" s="15">
+      <c r="E49" s="4">
         <f>MIN(E42:E48)</f>
         <v>2.8573959798929901E-3</v>
       </c>
-      <c r="F49" s="15">
+      <c r="F49" s="4">
         <f>MIN(F42:F48)</f>
         <v>1.8589458023291301E-3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A42:A48"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A26:A32"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
@@ -1795,22 +1800,6 @@
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A18:A24"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A26:A32"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A42:A48"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
